--- a/medicine/Psychotrope/Chevaliers_de_la_table_ronde_(chanson)/Chevaliers_de_la_table_ronde_(chanson).xlsx
+++ b/medicine/Psychotrope/Chevaliers_de_la_table_ronde_(chanson)/Chevaliers_de_la_table_ronde_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chevaliers de la table ronde est une chanson à boire populaire chantée en Acadie, en Belgique, en France, en Nouvelle-Angleterre, en Ontario francophone, au Québec, en Suisse, en Vallée d'Aoste, aussi bien que dans d'autres pays francophones, comme le Liban.
@@ -512,15 +524,52 @@
           <t>Texte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les paroles, qui connaissent de nombreuses variantes, sont structurées comme suit :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les paroles, qui connaissent de nombreuses variantes, sont structurées comme suit :
 Deux premiers vers chantés en bis ;
 Les trois (voire quatre) premières syllabes du deuxième vers, suivi de « oui, oui, oui » ;
 Les trois (voire quatre) premières syllabes du deuxième vers, suivi de « non, non, non » ;
 Le second vers ;
-Passage au double vers suivant...
-Première version
+Passage au double vers suivant...</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chevaliers_de_la_table_ronde_(chanson)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chevaliers_de_la_table_ronde_(chanson)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Texte</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Première version</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chevaliers de la table ronde,
 Goûtons voir si le vin est bon ;
 Goûtons voir, oui, oui, oui,
@@ -568,7 +617,43 @@
 La morale de cette histoire
 Est qu'il faut boire avant de mourir ;
 Est qu'il faut, oui, oui, oui… 
-Deuxième version : Recueil suisse militaire de chants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chevaliers_de_la_table_ronde_(chanson)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chevaliers_de_la_table_ronde_(chanson)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Texte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Deuxième version : Recueil suisse militaire de chants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mes amis de la Table Ronde
 Dites moi si ce vin est bon
 Dites moi, oh oui oui oui
@@ -587,67 +672,71 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Chevaliers_de_la_table_ronde_(chanson)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chevaliers_de_la_table_ronde_(chanson)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Musique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Comme nombre de chansons populaires, la mélodie est simple et répétitive.
 La lecture audio n'est pas prise en charge dans votre navigateur. Vous pouvez télécharger le fichier audio.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chevaliers_de_la_table_ronde_(chanson)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chevaliers_de_la_table_ronde_(chanson)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Origines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chanson, présente dans des livrets de colportage du XVIIIe siècle[1], s'inspire d'une précédente, La Femme ivrogne, qui fut transcrite en 1749 en patois de la Bresse. Parmi ses paroles figurent le couplet « Si je meurs, que l'on m'enterre dans la cave où est le vin, les pieds contre la muraille, la tête sous le robin ». Ce couplet se retrouve dans diverses variantes : Catherine s'est coiffée[2],[3] ou La maladie de la fille ivrogne[4] ; la Vieille Mathurine[5], et dans une pièce d'Eugène Labiche[6]. Auparavant, le thème des chevaliers de la Table Ronde comme synonyme d'amis du vin était déjà présent au XVIIe siècle : en 1643, une chanson d'André de Rosiers de Beaulieu commence par ces vers[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chanson, présente dans des livrets de colportage du XVIIIe siècle, s'inspire d'une précédente, La Femme ivrogne, qui fut transcrite en 1749 en patois de la Bresse. Parmi ses paroles figurent le couplet « Si je meurs, que l'on m'enterre dans la cave où est le vin, les pieds contre la muraille, la tête sous le robin ». Ce couplet se retrouve dans diverses variantes : Catherine s'est coiffée, ou La maladie de la fille ivrogne ; la Vieille Mathurine, et dans une pièce d'Eugène Labiche. Auparavant, le thème des chevaliers de la Table Ronde comme synonyme d'amis du vin était déjà présent au XVIIe siècle : en 1643, une chanson d'André de Rosiers de Beaulieu commence par ces vers :
 Enfans de l'Amour et du vin, Chevaliers de la Table Ronde...
 Le Roux, dans son Dictionnaire comique, signale en 1718 qu' « on appelle chevaliers de la Table Ronde ceux qui aiment être longtemps à table ».
-Le texte tel qu'il est connu aujourd'hui date du début du XXe siècle[8].
+Le texte tel qu'il est connu aujourd'hui date du début du XXe siècle.
 </t>
         </is>
       </c>
